--- a/Settlement Data.xlsx
+++ b/Settlement Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekblo\Documents\Option Strategy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekblo\Documents\OptionStrategyOpen\OptionStrategyOpen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73B336F-DB3C-4525-9951-75E259E51E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9986AF8-9C5E-4539-AB96-7FDA157FBCDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15150" yWindow="14625" windowWidth="13650" windowHeight="975" xr2:uid="{9FC13AA9-E941-42D1-BF48-72F502EC581A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>Index Settlement Values</t>
   </si>
@@ -837,12 +837,6 @@
   </si>
   <si>
     <t>S&amp;P 100</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>**</t>
   </si>
 </sst>
 </file>
@@ -850,9 +844,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="m/yy;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -892,9 +886,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17953FC5-A990-4F3C-BD30-74F611DBAF5F}">
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I254" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1859,7 @@
         <v>1066.6199999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>37196</v>
       </c>
@@ -1879,7 +1873,7 @@
         <v>1144.46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>37226</v>
       </c>
@@ -1892,11 +1886,8 @@
       <c r="D50" s="5">
         <v>1147.3</v>
       </c>
-      <c r="E50" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>37257</v>
       </c>
@@ -1910,7 +1901,7 @@
         <v>1127.53</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>37288</v>
       </c>
@@ -1924,7 +1915,7 @@
         <v>1116.54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>37316</v>
       </c>
@@ -1938,7 +1929,7 @@
         <v>1158.5999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>37347</v>
       </c>
@@ -1952,7 +1943,7 @@
         <v>1130.25</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>37377</v>
       </c>
@@ -1966,7 +1957,7 @@
         <v>1100.82</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>37408</v>
       </c>
@@ -1980,7 +1971,7 @@
         <v>991.33</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>37438</v>
       </c>
@@ -1994,7 +1985,7 @@
         <v>864.12</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>37469</v>
       </c>
@@ -2008,7 +1999,7 @@
         <v>923.82</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>37500</v>
       </c>
@@ -2022,7 +2013,7 @@
         <v>846.24</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>37530</v>
       </c>
@@ -2036,7 +2027,7 @@
         <v>873.57</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>37561</v>
       </c>
@@ -2049,11 +2040,8 @@
       <c r="D61" s="5">
         <v>896.36</v>
       </c>
-      <c r="E61" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>37591</v>
       </c>
@@ -2067,7 +2055,7 @@
         <v>891.11</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>37622</v>
       </c>
@@ -2081,7 +2069,7 @@
         <v>908.33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>37653</v>
       </c>
@@ -2095,7 +2083,7 @@
         <v>840.98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>37681</v>
       </c>
@@ -2109,7 +2097,7 @@
         <v>887.16</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>37712</v>
       </c>
@@ -2123,7 +2111,7 @@
         <v>878.92</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>37742</v>
       </c>
@@ -2136,11 +2124,8 @@
       <c r="D67" s="5">
         <v>943.62</v>
       </c>
-      <c r="E67" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>37773</v>
       </c>
@@ -2154,7 +2139,7 @@
         <v>1001.56</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>37803</v>
       </c>
@@ -2168,7 +2153,7 @@
         <v>989.25</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>37834</v>
       </c>
@@ -2182,7 +2167,7 @@
         <v>991.05</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>37865</v>
       </c>
@@ -2196,7 +2181,7 @@
         <v>1051.24</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>37895</v>
       </c>
@@ -2210,7 +2195,7 @@
         <v>1051.24</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>37926</v>
       </c>
@@ -2224,7 +2209,7 @@
         <v>1038.1400000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>37956</v>
       </c>
@@ -2238,7 +2223,7 @@
         <v>1091.6099999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>37987</v>
       </c>
@@ -2252,7 +2237,7 @@
         <v>1137.52</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>38018</v>
       </c>
@@ -2266,7 +2251,7 @@
         <v>1150.76</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>38047</v>
       </c>
@@ -2280,7 +2265,7 @@
         <v>1120.18</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>38078</v>
       </c>
@@ -2294,7 +2279,7 @@
         <v>1133.81</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>38108</v>
       </c>
@@ -2308,7 +2293,7 @@
         <v>1094.6600000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>38139</v>
       </c>
@@ -3757,6 +3742,12 @@
       <c r="B183" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="C183" s="5">
+        <v>671.37</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1481.36</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
@@ -3765,6 +3756,12 @@
       <c r="B184" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="C184" s="5">
+        <v>683.97</v>
+      </c>
+      <c r="D184" s="5">
+        <v>1523.06</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
@@ -3773,6 +3770,12 @@
       <c r="B185" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="C185" s="5">
+        <v>701.75</v>
+      </c>
+      <c r="D185" s="5">
+        <v>1557.08</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -3781,6 +3784,12 @@
       <c r="B186" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="C186" s="5">
+        <v>700.82</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1545.35</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
@@ -3789,6 +3798,12 @@
       <c r="B187" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="C187" s="5">
+        <v>747.72</v>
+      </c>
+      <c r="D187" s="5">
+        <v>1654.89</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
@@ -3797,6 +3812,12 @@
       <c r="B188" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="C188" s="5">
+        <v>717.58</v>
+      </c>
+      <c r="D188" s="5">
+        <v>1599.93</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -3805,6 +3826,12 @@
       <c r="B189" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="C189" s="5">
+        <v>757.51</v>
+      </c>
+      <c r="D189" s="5">
+        <v>1688.8</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -3813,6 +3840,12 @@
       <c r="B190" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="C190" s="5">
+        <v>742.38</v>
+      </c>
+      <c r="D190" s="5">
+        <v>1657</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
@@ -3821,6 +3854,12 @@
       <c r="B191" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="C191" s="5">
+        <v>763.23</v>
+      </c>
+      <c r="D191" s="5">
+        <v>1723.89</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -3829,605 +3868,1061 @@
       <c r="B192" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" s="5">
+        <v>776.21</v>
+      </c>
+      <c r="D192" s="5">
+        <v>1739.84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>41579</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" s="5">
+        <v>802.1</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1790.9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>41609</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" s="5">
+        <v>809.74</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1812.89</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>41640</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" s="5">
+        <v>817.33</v>
+      </c>
+      <c r="D195" s="5">
+        <v>1846.06</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>41671</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" s="5">
+        <v>807.33</v>
+      </c>
+      <c r="D196" s="5">
+        <v>1841.85</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>41699</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" s="5">
+        <v>823.69</v>
+      </c>
+      <c r="D197" s="5">
+        <v>1893.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>41730</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" s="5">
+        <v>825.68</v>
+      </c>
+      <c r="D198" s="5">
+        <v>1858.82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>41760</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" s="5">
+        <v>832.32</v>
+      </c>
+      <c r="D199" s="5">
+        <v>1870.76</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>41791</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" s="5">
+        <v>866.15</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1964.52</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>41821</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" s="5">
+        <v>879.49</v>
+      </c>
+      <c r="D201" s="5">
+        <v>1966.31</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>41852</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" s="5">
+        <v>868.27</v>
+      </c>
+      <c r="D202" s="5">
+        <v>1963.31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>41883</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" s="5">
+        <v>897.09</v>
+      </c>
+      <c r="D203" s="5">
+        <v>2022.46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>41913</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" s="5">
+        <v>840.94</v>
+      </c>
+      <c r="D204" s="5">
+        <v>1881.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>41944</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" s="5">
+        <v>914.78</v>
+      </c>
+      <c r="D205" s="5">
+        <v>2075.42</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>41974</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" s="5">
+        <v>915.23</v>
+      </c>
+      <c r="D206" s="5">
+        <v>2061.0100000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>42005</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" s="5">
+        <v>889.8</v>
+      </c>
+      <c r="D207" s="5">
+        <v>1989.68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>42036</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" s="5">
+        <v>926.63</v>
+      </c>
+      <c r="D208" s="5">
+        <v>2094.87</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>42064</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" s="5">
+        <v>922.49</v>
+      </c>
+      <c r="D209" s="5">
+        <v>2099.02</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>42095</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" s="5">
+        <v>909.87</v>
+      </c>
+      <c r="D210" s="5">
+        <v>2090.41</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>42125</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" s="5">
+        <v>933.12</v>
+      </c>
+      <c r="D211" s="5">
+        <v>2123.4499999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>42156</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" s="5">
+        <v>927.63</v>
+      </c>
+      <c r="D212" s="5">
+        <v>2117.11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>42186</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" s="5">
+        <v>943.27</v>
+      </c>
+      <c r="D213" s="5">
+        <v>2124.88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>42217</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="5">
+        <v>864.77</v>
+      </c>
+      <c r="D214" s="5">
+        <v>2015.47</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>42248</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" s="5">
+        <v>861.37</v>
+      </c>
+      <c r="D215" s="5">
+        <v>1970.1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>42278</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" s="5">
+        <v>901.24</v>
+      </c>
+      <c r="D216" s="5">
+        <v>2034.33</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>42309</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" s="5">
+        <v>932.99</v>
+      </c>
+      <c r="D217" s="5">
+        <v>2092.59</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>42339</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" s="5">
+        <v>896.05</v>
+      </c>
+      <c r="D218" s="5">
+        <v>2029.72</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>42370</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" s="5">
+        <v>839.89</v>
+      </c>
+      <c r="D219" s="5">
+        <v>1866.72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>42401</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" s="5">
+        <v>857.25</v>
+      </c>
+      <c r="D220" s="5">
+        <v>1911.37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>42430</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" s="5">
+        <v>907.88</v>
+      </c>
+      <c r="D221" s="5">
+        <v>2050.0700000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>42461</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" s="5">
+        <v>923.97</v>
+      </c>
+      <c r="D222" s="5">
+        <v>2083.83</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>42491</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" s="5">
+        <v>909.15</v>
+      </c>
+      <c r="D223" s="5">
+        <v>2047.87</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>42522</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" s="5">
+        <v>914.95</v>
+      </c>
+      <c r="D224" s="5">
+        <v>2079.12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>42552</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" s="5">
+        <v>955.92</v>
+      </c>
+      <c r="D225" s="5">
+        <v>2172.54</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>42583</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" s="5">
+        <v>964.8</v>
+      </c>
+      <c r="D226" s="5">
+        <v>2180.04</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>42614</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" s="5">
+        <v>948.8</v>
+      </c>
+      <c r="D227" s="5">
+        <v>2139.96</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>42644</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="5">
+        <v>949.66</v>
+      </c>
+      <c r="D228" s="5">
+        <v>2132.9699999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>42675</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" s="5">
+        <v>963.13</v>
+      </c>
+      <c r="D229" s="5">
+        <v>2186.11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>42705</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" s="5">
+        <v>999.89</v>
+      </c>
+      <c r="D230" s="5">
+        <v>2268.63</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>42736</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" s="5">
+        <v>1003.04</v>
+      </c>
+      <c r="D231" s="5">
+        <v>2273.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>42767</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" s="5">
+        <v>1039.23</v>
+      </c>
+      <c r="D232" s="5">
+        <v>2341.31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>42795</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" s="5">
+        <v>1055.3399999999999</v>
+      </c>
+      <c r="D233" s="5">
+        <v>2385.8000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>42826</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" s="5">
+        <v>1037.07</v>
+      </c>
+      <c r="D234" s="5">
+        <v>2354.1799999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>42856</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235" s="5">
+        <v>1050.79</v>
+      </c>
+      <c r="D235" s="5">
+        <v>2372.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>42887</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" s="5">
+        <v>1071.8499999999999</v>
+      </c>
+      <c r="D236" s="5">
+        <v>2434.89</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>42917</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" s="5">
+        <v>1087.74</v>
+      </c>
+      <c r="D237" s="5">
+        <v>2465.65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>42948</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238" s="5">
+        <v>1073.52</v>
+      </c>
+      <c r="D238" s="5">
+        <v>2425.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>42979</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239" s="5">
+        <v>1105.1099999999999</v>
+      </c>
+      <c r="D239" s="5">
+        <v>2496.83</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>43009</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240" s="5">
+        <v>1135.26</v>
+      </c>
+      <c r="D240" s="5">
+        <v>2571.7600000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>43040</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241" s="5">
+        <v>1135.3499999999999</v>
+      </c>
+      <c r="D241" s="5">
+        <v>2580.25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>43070</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242" s="5">
+        <v>1186.68</v>
+      </c>
+      <c r="D242" s="5">
+        <v>2669.02</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>43101</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243" s="5">
+        <v>1245.7</v>
+      </c>
+      <c r="D243" s="5">
+        <v>2806.67</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>43132</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244" s="5">
+        <v>1208.8800000000001</v>
+      </c>
+      <c r="D244" s="5">
+        <v>2725.08</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>43160</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245" s="5">
+        <v>1211.4000000000001</v>
+      </c>
+      <c r="D245" s="5">
+        <v>2751.83</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>43191</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246" s="5">
+        <v>1170.45</v>
+      </c>
+      <c r="D246" s="5">
+        <v>2693.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>43221</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247" s="5">
+        <v>1190.6500000000001</v>
+      </c>
+      <c r="D247" s="5">
+        <v>2716.88</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>43252</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248" s="5">
+        <v>1220.26</v>
+      </c>
+      <c r="D248" s="5">
+        <v>2776.85</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>43282</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249" s="5">
+        <v>1236.33</v>
+      </c>
+      <c r="D249" s="5">
+        <v>2802.41</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>43313</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250" s="5">
+        <v>1262.32</v>
+      </c>
+      <c r="D250" s="5">
+        <v>2838.69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>43344</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251" s="5">
+        <v>1298.1400000000001</v>
+      </c>
+      <c r="D251" s="5">
+        <v>2940.45</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>43374</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252" s="5">
+        <v>1236.0899999999999</v>
+      </c>
+      <c r="D252" s="5">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>43405</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253" s="5">
+        <v>1213.73</v>
+      </c>
+      <c r="D253" s="5">
+        <v>2715.99</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>43435</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254" s="5">
+        <v>1071.32</v>
+      </c>
+      <c r="D254" s="5">
+        <v>2458.9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>43466</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255" s="5">
+        <v>1181.55</v>
+      </c>
+      <c r="D255" s="5">
+        <v>2657.47</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>43497</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256" s="5">
+        <v>1217.96</v>
+      </c>
+      <c r="D256" s="5">
+        <v>2768.87</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>43525</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257" s="5">
+        <v>1247.48</v>
+      </c>
+      <c r="D257" s="5">
+        <v>2811.89</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>43556</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258" s="5">
+        <v>1287.4000000000001</v>
+      </c>
+      <c r="D258" s="5">
+        <v>2905.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>43586</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259" s="5">
+        <v>1267.4100000000001</v>
+      </c>
+      <c r="D259" s="5">
+        <v>2851.23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>43617</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260" s="5">
+        <v>1304.3599999999999</v>
+      </c>
+      <c r="D260" s="5">
+        <v>2953.9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>43647</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261" s="5">
+        <v>1315.42</v>
+      </c>
+      <c r="D261" s="5">
+        <v>3008.06</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>43678</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262" s="5">
+        <v>1275.19</v>
+      </c>
+      <c r="D262" s="5">
+        <v>2870.98</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>43709</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263" s="5">
+        <v>1321.7</v>
+      </c>
+      <c r="D263" s="5">
+        <v>3013.61</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>43739</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264" s="5">
+        <v>1321.61</v>
+      </c>
+      <c r="D264" s="5">
+        <v>2996.65</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>43770</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265" s="5">
+        <v>1388.81</v>
+      </c>
+      <c r="D265" s="5">
+        <v>3110.52</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>43800</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266" s="5">
+        <v>1435.65</v>
+      </c>
+      <c r="D266" s="5">
+        <v>3231.02</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>43831</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C267" s="5">
+        <v>1489.62</v>
+      </c>
+      <c r="D267" s="5">
+        <v>3326.19</v>
       </c>
     </row>
   </sheetData>

--- a/Settlement Data.xlsx
+++ b/Settlement Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekblo\Documents\OptionStrategyOpen\OptionStrategyOpen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9986AF8-9C5E-4539-AB96-7FDA157FBCDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74275C29-03C7-49AA-9F18-A4354BAF9D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15150" yWindow="14625" windowWidth="13650" windowHeight="975" xr2:uid="{9FC13AA9-E941-42D1-BF48-72F502EC581A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>Index Settlement Values</t>
   </si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>01.09.2019</t>
-  </si>
-  <si>
-    <t>01.01.1998</t>
-  </si>
-  <si>
-    <t>01.02.1998</t>
-  </si>
-  <si>
-    <t>01.03.1998</t>
   </si>
   <si>
     <t>01.01.1999</t>
@@ -843,9 +834,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/yy;@"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -883,11 +873,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1204,17 +1193,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17953FC5-A990-4F3C-BD30-74F611DBAF5F}">
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I254" sqref="I254"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,3702 +1215,3678 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>35796</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>35886</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>542.87</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1109.76</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>538.45000000000005</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1118.1500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>535.48</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1107.8399999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
-        <v>542.87</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1109.76</v>
+      <c r="C6" s="4">
+        <v>581.34</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1185.74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
-        <v>538.45000000000005</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1118.1500000000001</v>
+      <c r="C7" s="4">
+        <v>534.19000000000005</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1080.24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
-        <v>535.48</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1107.8399999999999</v>
+      <c r="C8" s="4">
+        <v>495.25</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1020.88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
-        <v>581.34</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1185.74</v>
+      <c r="C9" s="4">
+        <v>520.95000000000005</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1061.19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5">
-        <v>534.19000000000005</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1080.24</v>
+      <c r="C10" s="4">
+        <v>574.97</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1162.55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5">
-        <v>495.25</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1020.88</v>
+      <c r="C11" s="4">
+        <v>589.84</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1180.28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5">
-        <v>520.95000000000005</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1061.19</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>616.46</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1223.6400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5">
-        <v>574.97</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1162.55</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>620.29</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1235.51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5">
-        <v>589.84</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1180.28</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>650.11</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1325.65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5">
-        <v>616.46</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1223.6400000000001</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="4">
+        <v>668.65</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1324.15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="5">
-        <v>620.29</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1235.51</v>
+      <c r="C16" s="4">
+        <v>671.76</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1339.44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5">
-        <v>650.11</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1325.65</v>
+      <c r="C17" s="4">
+        <v>683.47</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1335.82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5">
-        <v>668.65</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1324.15</v>
+      <c r="C18" s="4">
+        <v>733.79</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1410.78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5">
-        <v>671.76</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1339.44</v>
+      <c r="C19" s="4">
+        <v>696.59</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1328.94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5">
-        <v>683.47</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1335.82</v>
+      <c r="C20" s="4">
+        <v>704.96</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1326.13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="5">
-        <v>733.79</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1410.78</v>
+      <c r="C21" s="4">
+        <v>651.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1267.1300000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="5">
-        <v>696.59</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1328.94</v>
+      <c r="C22" s="4">
+        <v>749.3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1420.19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5">
-        <v>704.96</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1326.13</v>
+      <c r="C23" s="4">
+        <v>773.93</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1429.73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5">
-        <v>651.75</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1267.1300000000001</v>
+      <c r="C24" s="4">
+        <v>779.78</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1460.42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5">
-        <v>749.3</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1420.19</v>
+      <c r="C25" s="4">
+        <v>728.52</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1385.28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5">
-        <v>773.93</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1429.73</v>
+      <c r="C26" s="4">
+        <v>786.74</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1451.48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="5">
-        <v>779.78</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1460.42</v>
+      <c r="C27" s="4">
+        <v>777.12</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1430.61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5">
-        <v>728.52</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1385.28</v>
+      <c r="C28" s="4">
+        <v>752.95</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1417.81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5">
-        <v>786.74</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1451.48</v>
+      <c r="C29" s="4">
+        <v>788.74</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1475.44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="5">
-        <v>777.12</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1430.61</v>
+      <c r="C30" s="4">
+        <v>804.55</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1491.78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="5">
-        <v>752.95</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1417.81</v>
+      <c r="C31" s="4">
+        <v>813.64</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1497.25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="5">
-        <v>788.74</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1475.44</v>
+      <c r="C32" s="4">
+        <v>789.16</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1480.93</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="5">
-        <v>804.55</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1491.78</v>
+      <c r="C33" s="4">
+        <v>738.16</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1379.85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="5">
-        <v>813.64</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1497.25</v>
+      <c r="C34" s="4">
+        <v>725.09</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1371.18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="5">
-        <v>789.16</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1480.93</v>
+      <c r="C35" s="4">
+        <v>689.48</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1318.25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="5">
-        <v>738.16</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1379.85</v>
+      <c r="C36" s="4">
+        <v>705.23</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1352.07</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="5">
-        <v>725.09</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1371.18</v>
+      <c r="C37" s="4">
+        <v>675.42</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1300.78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="5">
-        <v>689.48</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1318.25</v>
+      <c r="C38" s="4">
+        <v>587.99</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1156.28</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="5">
-        <v>705.23</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1352.07</v>
+      <c r="C39" s="4">
+        <v>643.66</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1248.6500000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="5">
-        <v>675.42</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1300.78</v>
+      <c r="C40" s="4">
+        <v>668.38</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1288.23</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="5">
-        <v>587.99</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1156.28</v>
+      <c r="C41" s="4">
+        <v>626.63</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1206.8800000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="5">
-        <v>643.66</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1248.6500000000001</v>
+      <c r="C42" s="4">
+        <v>625.59</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1208.29</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="5">
-        <v>668.38</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1288.23</v>
+      <c r="C43" s="4">
+        <v>593.87</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1171.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="5">
-        <v>626.63</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1206.8800000000001</v>
+      <c r="C44" s="4">
+        <v>491.7</v>
+      </c>
+      <c r="D44" s="4">
+        <v>939.57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="5">
-        <v>625.59</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1208.29</v>
+      <c r="C45" s="4">
+        <v>553.79999999999995</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1066.6199999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="5">
-        <v>593.87</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1171.5</v>
+      <c r="C46" s="4">
+        <v>588.07000000000005</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1144.46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="5">
-        <v>491.7</v>
-      </c>
-      <c r="D47" s="5">
-        <v>939.57</v>
+      <c r="C47" s="4">
+        <v>586.41</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1147.3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="5">
-        <v>553.79999999999995</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1066.6199999999999</v>
+      <c r="C48" s="4">
+        <v>575.24</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1127.53</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="5">
-        <v>588.07000000000005</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1144.46</v>
+      <c r="C49" s="4">
+        <v>559.65</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1116.54</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="5">
-        <v>586.41</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1147.3</v>
+      <c r="C50" s="4">
+        <v>591.13</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1158.5999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="5">
-        <v>575.24</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1127.53</v>
+      <c r="C51" s="4">
+        <v>559.79</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1130.25</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="5">
-        <v>559.65</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1116.54</v>
+      <c r="C52" s="4">
+        <v>553.29999999999995</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1100.82</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="5">
-        <v>591.13</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1158.5999999999999</v>
+      <c r="C53" s="4">
+        <v>489.42</v>
+      </c>
+      <c r="D53" s="4">
+        <v>991.33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="5">
-        <v>559.79</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1130.25</v>
+      <c r="C54" s="4">
+        <v>423.1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>864.12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="5">
-        <v>553.29999999999995</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1100.82</v>
+      <c r="C55" s="4">
+        <v>468.44</v>
+      </c>
+      <c r="D55" s="4">
+        <v>923.82</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="5">
-        <v>489.42</v>
-      </c>
-      <c r="D56" s="5">
-        <v>991.33</v>
+      <c r="C56" s="4">
+        <v>423.9</v>
+      </c>
+      <c r="D56" s="4">
+        <v>846.24</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="5">
-        <v>423.1</v>
-      </c>
-      <c r="D57" s="5">
-        <v>864.12</v>
+      <c r="C57" s="4">
+        <v>449.02</v>
+      </c>
+      <c r="D57" s="4">
+        <v>873.57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="5">
-        <v>468.44</v>
-      </c>
-      <c r="D58" s="5">
-        <v>923.82</v>
+      <c r="C58" s="4">
+        <v>463.72</v>
+      </c>
+      <c r="D58" s="4">
+        <v>896.36</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="5">
-        <v>423.9</v>
-      </c>
-      <c r="D59" s="5">
-        <v>846.24</v>
+      <c r="C59" s="4">
+        <v>455.46</v>
+      </c>
+      <c r="D59" s="4">
+        <v>891.11</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="5">
-        <v>449.02</v>
-      </c>
-      <c r="D60" s="5">
-        <v>873.57</v>
+      <c r="C60" s="4">
+        <v>457.36</v>
+      </c>
+      <c r="D60" s="4">
+        <v>908.33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="5">
-        <v>463.72</v>
-      </c>
-      <c r="D61" s="5">
-        <v>896.36</v>
+      <c r="C61" s="4">
+        <v>429.87</v>
+      </c>
+      <c r="D61" s="4">
+        <v>840.98</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="5">
-        <v>455.46</v>
-      </c>
-      <c r="D62" s="5">
-        <v>891.11</v>
+      <c r="C62" s="4">
+        <v>456.41</v>
+      </c>
+      <c r="D62" s="4">
+        <v>887.16</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="5">
-        <v>457.36</v>
-      </c>
-      <c r="D63" s="5">
-        <v>908.33</v>
+      <c r="C63" s="4">
+        <v>453.71</v>
+      </c>
+      <c r="D63" s="4">
+        <v>878.92</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="5">
-        <v>429.87</v>
-      </c>
-      <c r="D64" s="5">
-        <v>840.98</v>
+      <c r="C64" s="4">
+        <v>475.72</v>
+      </c>
+      <c r="D64" s="4">
+        <v>943.62</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="5">
-        <v>456.41</v>
-      </c>
-      <c r="D65" s="5">
-        <v>887.16</v>
+      <c r="C65" s="4">
+        <v>502.39</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1001.56</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="5">
-        <v>453.71</v>
-      </c>
-      <c r="D66" s="5">
-        <v>878.92</v>
+      <c r="C66" s="4">
+        <v>501.5</v>
+      </c>
+      <c r="D66" s="4">
+        <v>989.25</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="5">
-        <v>475.72</v>
-      </c>
-      <c r="D67" s="5">
-        <v>943.62</v>
+      <c r="C67" s="4">
+        <v>498.3</v>
+      </c>
+      <c r="D67" s="4">
+        <v>991.05</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="5">
-        <v>502.39</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1001.56</v>
+      <c r="C68" s="4">
+        <v>520.62</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1051.24</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="5">
-        <v>501.5</v>
-      </c>
-      <c r="D69" s="5">
-        <v>989.25</v>
+      <c r="C69" s="4">
+        <v>518.12</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1051.24</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="5">
-        <v>498.3</v>
-      </c>
-      <c r="D70" s="5">
-        <v>991.05</v>
+      <c r="C70" s="4">
+        <v>511.77</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1038.1400000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="5">
-        <v>520.62</v>
-      </c>
-      <c r="D71" s="5">
-        <v>1051.24</v>
+      <c r="C71" s="4">
+        <v>540.26</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1091.6099999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="5">
-        <v>518.12</v>
-      </c>
-      <c r="D72" s="5">
-        <v>1051.24</v>
+      <c r="C72" s="4">
+        <v>564.72</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1137.52</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="5">
-        <v>511.77</v>
-      </c>
-      <c r="D73" s="5">
-        <v>1038.1400000000001</v>
+      <c r="C73" s="4">
+        <v>564.87</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1150.76</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="5">
-        <v>540.26</v>
-      </c>
-      <c r="D74" s="5">
-        <v>1091.6099999999999</v>
+      <c r="C74" s="4">
+        <v>543.67999999999995</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1120.18</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="5">
-        <v>564.72</v>
-      </c>
-      <c r="D75" s="5">
-        <v>1137.52</v>
+      <c r="C75" s="4">
+        <v>554.94000000000005</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1133.81</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="5">
-        <v>564.87</v>
-      </c>
-      <c r="D76" s="5">
-        <v>1150.76</v>
+      <c r="C76" s="4">
+        <v>534.33000000000004</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1094.6600000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="5">
-        <v>543.67999999999995</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1120.18</v>
+      <c r="C77" s="4">
+        <v>554.80999999999995</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1129.5999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="5">
-        <v>554.94000000000005</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1133.81</v>
+      <c r="C78" s="4">
+        <v>535.9</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1115.04</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="5">
-        <v>534.33000000000004</v>
-      </c>
-      <c r="D79" s="5">
-        <v>1094.6600000000001</v>
+      <c r="C79" s="4">
+        <v>536.04</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1090.6500000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="5">
-        <v>554.80999999999995</v>
-      </c>
-      <c r="D80" s="5">
-        <v>1129.5999999999999</v>
+      <c r="C80" s="4">
+        <v>545.79999999999995</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1127.02</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="5">
-        <v>535.9</v>
-      </c>
-      <c r="D81" s="5">
-        <v>1115.04</v>
+      <c r="C81" s="4">
+        <v>531.79999999999995</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1106.1300000000001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="5">
-        <v>536.04</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1090.6500000000001</v>
+      <c r="C82" s="4">
+        <v>559.69000000000005</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1184.4100000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="5">
-        <v>545.79999999999995</v>
-      </c>
-      <c r="D83" s="5">
-        <v>1127.02</v>
+      <c r="C83" s="4">
+        <v>567.39</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1190.45</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="5">
-        <v>531.79999999999995</v>
-      </c>
-      <c r="D84" s="5">
-        <v>1106.1300000000001</v>
+      <c r="C84" s="4">
+        <v>557.32000000000005</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1176.77</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="5">
-        <v>559.69000000000005</v>
-      </c>
-      <c r="D85" s="5">
-        <v>1184.4100000000001</v>
+      <c r="C85" s="4">
+        <v>575.41999999999996</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1201.79</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="5">
-        <v>567.39</v>
-      </c>
-      <c r="D86" s="5">
-        <v>1190.45</v>
+      <c r="C86" s="4">
+        <v>567.94000000000005</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1190.7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="5">
-        <v>557.32000000000005</v>
-      </c>
-      <c r="D87" s="5">
-        <v>1176.77</v>
+      <c r="C87" s="4">
+        <v>547.25</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1158.8499999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="5">
-        <v>575.41999999999996</v>
-      </c>
-      <c r="D88" s="5">
-        <v>1201.79</v>
+      <c r="C88" s="4">
+        <v>565.75</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1191.93</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="5">
-        <v>567.94000000000005</v>
-      </c>
-      <c r="D89" s="5">
-        <v>1190.7</v>
+      <c r="C89" s="4">
+        <v>572.34</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1222.68</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C90" s="5">
-        <v>547.25</v>
-      </c>
-      <c r="D90" s="5">
-        <v>1158.8499999999999</v>
+      <c r="C90" s="4">
+        <v>575.53</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1226.8599999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="5">
-        <v>565.75</v>
-      </c>
-      <c r="D91" s="5">
-        <v>1191.93</v>
+      <c r="C91" s="4">
+        <v>566.66999999999996</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1223.9000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="5">
-        <v>572.34</v>
-      </c>
-      <c r="D92" s="5">
-        <v>1222.68</v>
+      <c r="C92" s="4">
+        <v>573.37</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1232.79</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="5">
-        <v>575.53</v>
-      </c>
-      <c r="D93" s="5">
-        <v>1226.8599999999999</v>
+      <c r="C93" s="4">
+        <v>544.5</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1183.79</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="5">
-        <v>566.66999999999996</v>
-      </c>
-      <c r="D94" s="5">
-        <v>1223.9000000000001</v>
+      <c r="C94" s="4">
+        <v>574.69000000000005</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1254.8499999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="5">
-        <v>573.37</v>
-      </c>
-      <c r="D95" s="5">
-        <v>1232.79</v>
+      <c r="C95" s="4">
+        <v>579.08000000000004</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1278.8399999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="5">
-        <v>544.5</v>
-      </c>
-      <c r="D96" s="5">
-        <v>1183.79</v>
+      <c r="C96" s="4">
+        <v>571.51</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1284.28</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="5">
-        <v>574.69000000000005</v>
-      </c>
-      <c r="D97" s="5">
-        <v>1254.8499999999999</v>
+      <c r="C97" s="4">
+        <v>585.04</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1288.99</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="5">
-        <v>579.08000000000004</v>
-      </c>
-      <c r="D98" s="5">
-        <v>1278.8399999999999</v>
+      <c r="C98" s="4">
+        <v>593.49</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1310.1600000000001</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="5">
-        <v>571.51</v>
-      </c>
-      <c r="D99" s="5">
-        <v>1284.28</v>
+      <c r="C99" s="4">
+        <v>593.13</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1320.7</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="5">
-        <v>585.04</v>
-      </c>
-      <c r="D100" s="5">
-        <v>1288.99</v>
+      <c r="C100" s="4">
+        <v>578.88</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1264.71</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="5">
-        <v>593.49</v>
-      </c>
-      <c r="D101" s="5">
-        <v>1310.1600000000001</v>
+      <c r="C101" s="4">
+        <v>572.76</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1252.0899999999999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="5">
-        <v>593.13</v>
-      </c>
-      <c r="D102" s="5">
-        <v>1320.7</v>
+      <c r="C102" s="4">
+        <v>572.5</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1251.17</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="5">
-        <v>578.88</v>
-      </c>
-      <c r="D103" s="5">
-        <v>1264.71</v>
+      <c r="C103" s="4">
+        <v>601.5</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1300.26</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="5">
-        <v>572.76</v>
-      </c>
-      <c r="D104" s="5">
-        <v>1252.0899999999999</v>
+      <c r="C104" s="4">
+        <v>609.01</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1323.12</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="5">
-        <v>572.5</v>
-      </c>
-      <c r="D105" s="5">
-        <v>1251.17</v>
+      <c r="C105" s="4">
+        <v>636.01</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1371.12</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="5">
-        <v>601.5</v>
-      </c>
-      <c r="D106" s="5">
-        <v>1300.26</v>
+      <c r="C106" s="4">
+        <v>652.6</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1394.31</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="5">
-        <v>609.01</v>
-      </c>
-      <c r="D107" s="5">
-        <v>1323.12</v>
+      <c r="C107" s="4">
+        <v>663.11</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1428.74</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="5">
-        <v>636.01</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1371.12</v>
+      <c r="C108" s="4">
+        <v>665.38</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1427.92</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="5">
-        <v>652.6</v>
-      </c>
-      <c r="D109" s="5">
-        <v>1394.31</v>
+      <c r="C109" s="4">
+        <v>668.84</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1452.26</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="5">
-        <v>663.11</v>
-      </c>
-      <c r="D110" s="5">
-        <v>1428.74</v>
+      <c r="C110" s="4">
+        <v>633.94000000000005</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1396.12</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="5">
-        <v>665.38</v>
-      </c>
-      <c r="D111" s="5">
-        <v>1427.92</v>
+      <c r="C111" s="4">
+        <v>680.82</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1485.57</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="5">
-        <v>668.84</v>
-      </c>
-      <c r="D112" s="5">
-        <v>1452.26</v>
+      <c r="C112" s="4">
+        <v>699.8</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1517.46</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="5">
-        <v>633.94000000000005</v>
-      </c>
-      <c r="D113" s="5">
-        <v>1396.12</v>
+      <c r="C113" s="4">
+        <v>704.53</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1534.09</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="5">
-        <v>680.82</v>
-      </c>
-      <c r="D114" s="5">
-        <v>1485.57</v>
+      <c r="C114" s="4">
+        <v>709.92</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1551.46</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="5">
-        <v>699.8</v>
-      </c>
-      <c r="D115" s="5">
-        <v>1517.46</v>
+      <c r="C115" s="4">
+        <v>674.53</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1450.11</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="5">
-        <v>704.53</v>
-      </c>
-      <c r="D116" s="5">
-        <v>1534.09</v>
+      <c r="C116" s="4">
+        <v>713.35</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1533.38</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="5">
-        <v>709.92</v>
-      </c>
-      <c r="D117" s="5">
-        <v>1551.46</v>
+      <c r="C117" s="4">
+        <v>700.31</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1531.12</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="5">
-        <v>674.53</v>
-      </c>
-      <c r="D118" s="5">
-        <v>1450.11</v>
+      <c r="C118" s="4">
+        <v>680.61</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1462.47</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="5">
-        <v>713.35</v>
-      </c>
-      <c r="D119" s="5">
-        <v>1533.38</v>
+      <c r="C119" s="4">
+        <v>693.57</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1474.95</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="5">
-        <v>700.31</v>
-      </c>
-      <c r="D120" s="5">
-        <v>1531.12</v>
+      <c r="C120" s="4">
+        <v>620.42999999999995</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1333.94</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="5">
-        <v>680.61</v>
-      </c>
-      <c r="D121" s="5">
-        <v>1462.47</v>
+      <c r="C121" s="4">
+        <v>623.85</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1347.2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="5">
-        <v>693.57</v>
-      </c>
-      <c r="D122" s="5">
-        <v>1474.95</v>
+      <c r="C122" s="4">
+        <v>620.38</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1302.6400000000001</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="5">
-        <v>620.42999999999995</v>
-      </c>
-      <c r="D123" s="5">
-        <v>1333.94</v>
+      <c r="C123" s="4">
+        <v>640.6</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1391.12</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C124" s="5">
-        <v>623.85</v>
-      </c>
-      <c r="D124" s="5">
-        <v>1347.2</v>
+      <c r="C124" s="4">
+        <v>652.15</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1425.7</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C125" s="5">
-        <v>620.38</v>
-      </c>
-      <c r="D125" s="5">
-        <v>1302.6400000000001</v>
+      <c r="C125" s="4">
+        <v>597.13</v>
+      </c>
+      <c r="D125" s="4">
+        <v>1339.28</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C126" s="5">
-        <v>640.6</v>
-      </c>
-      <c r="D126" s="5">
-        <v>1391.12</v>
+      <c r="C126" s="4">
+        <v>580.57000000000005</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1264.17</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C127" s="5">
-        <v>652.15</v>
-      </c>
-      <c r="D127" s="5">
-        <v>1425.7</v>
+      <c r="C127" s="4">
+        <v>598.88</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1294.49</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C128" s="5">
-        <v>597.13</v>
-      </c>
-      <c r="D128" s="5">
-        <v>1339.28</v>
+      <c r="C128" s="4">
+        <v>577.91</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1279.31</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C129" s="5">
-        <v>580.57000000000005</v>
-      </c>
-      <c r="D129" s="5">
-        <v>1264.17</v>
+      <c r="C129" s="4">
+        <v>448.99</v>
+      </c>
+      <c r="D129" s="4">
+        <v>922.71</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C130" s="5">
-        <v>598.88</v>
-      </c>
-      <c r="D130" s="5">
-        <v>1294.49</v>
+      <c r="C130" s="4">
+        <v>389.88</v>
+      </c>
+      <c r="D130" s="4">
+        <v>763.45</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="5">
-        <v>577.91</v>
-      </c>
-      <c r="D131" s="5">
-        <v>1279.31</v>
+      <c r="C131" s="4">
+        <v>424.18</v>
+      </c>
+      <c r="D131" s="4">
+        <v>889.74</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="5">
-        <v>448.99</v>
-      </c>
-      <c r="D132" s="5">
-        <v>922.71</v>
+      <c r="C132" s="4">
+        <v>400.96</v>
+      </c>
+      <c r="D132" s="4">
+        <v>859.37</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C133" s="5">
-        <v>389.88</v>
-      </c>
-      <c r="D133" s="5">
-        <v>763.45</v>
+      <c r="C133" s="4">
+        <v>363.75</v>
+      </c>
+      <c r="D133" s="4">
+        <v>768.2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="5">
-        <v>424.18</v>
-      </c>
-      <c r="D134" s="5">
-        <v>889.74</v>
+      <c r="C134" s="4">
+        <v>363.4</v>
+      </c>
+      <c r="D134" s="4">
+        <v>789.4</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="5">
-        <v>400.96</v>
-      </c>
-      <c r="D135" s="5">
-        <v>859.37</v>
+      <c r="C135" s="4">
+        <v>406.33</v>
+      </c>
+      <c r="D135" s="4">
+        <v>870.59</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C136" s="5">
-        <v>363.75</v>
-      </c>
-      <c r="D136" s="5">
-        <v>768.2</v>
+      <c r="C136" s="4">
+        <v>414.23</v>
+      </c>
+      <c r="D136" s="4">
+        <v>891.06</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="5">
-        <v>363.4</v>
-      </c>
-      <c r="D137" s="5">
-        <v>789.4</v>
+      <c r="C137" s="4">
+        <v>430.43</v>
+      </c>
+      <c r="D137" s="4">
+        <v>926.15</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C138" s="5">
-        <v>406.33</v>
-      </c>
-      <c r="D138" s="5">
-        <v>870.59</v>
+      <c r="C138" s="4">
+        <v>441.14</v>
+      </c>
+      <c r="D138" s="4">
+        <v>940.03</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="5">
-        <v>414.23</v>
-      </c>
-      <c r="D139" s="5">
-        <v>891.06</v>
+      <c r="C139" s="4">
+        <v>476.11</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1020.85</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="5">
-        <v>430.43</v>
-      </c>
-      <c r="D140" s="5">
-        <v>926.15</v>
+      <c r="C140" s="4">
+        <v>492.7</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1071.57</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C141" s="5">
-        <v>441.14</v>
-      </c>
-      <c r="D141" s="5">
-        <v>940.03</v>
+      <c r="C141" s="4">
+        <v>502.89</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1087.5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="5">
-        <v>476.11</v>
-      </c>
-      <c r="D142" s="5">
-        <v>1020.85</v>
+      <c r="C142" s="4">
+        <v>508.79</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1090.8399999999999</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="5">
-        <v>492.7</v>
-      </c>
-      <c r="D143" s="5">
-        <v>1071.57</v>
+      <c r="C143" s="4">
+        <v>508.73</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1102.3800000000001</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="5">
-        <v>502.89</v>
-      </c>
-      <c r="D144" s="5">
-        <v>1087.5</v>
+      <c r="C144" s="4">
+        <v>524.11</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1147.58</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C145" s="5">
-        <v>508.79</v>
-      </c>
-      <c r="D145" s="5">
-        <v>1090.8399999999999</v>
+      <c r="C145" s="4">
+        <v>508.57</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1101.98</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C146" s="5">
-        <v>508.73</v>
-      </c>
-      <c r="D146" s="5">
-        <v>1102.3800000000001</v>
+      <c r="C146" s="4">
+        <v>530.53</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1172.95</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C147" s="5">
-        <v>524.11</v>
-      </c>
-      <c r="D147" s="5">
-        <v>1147.58</v>
+      <c r="C147" s="4">
+        <v>544.67999999999995</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1207.93</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C148" s="5">
-        <v>508.57</v>
-      </c>
-      <c r="D148" s="5">
-        <v>1101.98</v>
+      <c r="C148" s="4">
+        <v>494.31</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1050.1500000000001</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C149" s="5">
-        <v>530.53</v>
-      </c>
-      <c r="D149" s="5">
-        <v>1172.95</v>
+      <c r="C149" s="4">
+        <v>504.7</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1118.93</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="5">
-        <v>544.67999999999995</v>
-      </c>
-      <c r="D150" s="5">
-        <v>1207.93</v>
+      <c r="C150" s="4">
+        <v>484.21</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1090.6300000000001</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C151" s="5">
-        <v>494.31</v>
-      </c>
-      <c r="D151" s="5">
-        <v>1050.1500000000001</v>
+      <c r="C151" s="4">
+        <v>485.86</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1072.25</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C152" s="5">
-        <v>504.7</v>
-      </c>
-      <c r="D152" s="5">
-        <v>1118.93</v>
+      <c r="C152" s="4">
+        <v>509.04</v>
+      </c>
+      <c r="D152" s="4">
+        <v>1131.1500000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C153" s="5">
-        <v>484.21</v>
-      </c>
-      <c r="D153" s="5">
-        <v>1090.6300000000001</v>
+      <c r="C153" s="4">
+        <v>530.78</v>
+      </c>
+      <c r="D153" s="4">
+        <v>1183.67</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C154" s="5">
-        <v>485.86</v>
-      </c>
-      <c r="D154" s="5">
-        <v>1072.25</v>
+      <c r="C154" s="4">
+        <v>539.99</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1195.73</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C155" s="5">
-        <v>509.04</v>
-      </c>
-      <c r="D155" s="5">
-        <v>1131.1500000000001</v>
+      <c r="C155" s="4">
+        <v>559.49</v>
+      </c>
+      <c r="D155" s="4">
+        <v>1242.3499999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C156" s="5">
-        <v>530.78</v>
-      </c>
-      <c r="D156" s="5">
-        <v>1183.67</v>
+      <c r="C156" s="4">
+        <v>579.54999999999995</v>
+      </c>
+      <c r="D156" s="4">
+        <v>1289.25</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C157" s="5">
-        <v>539.99</v>
-      </c>
-      <c r="D157" s="5">
-        <v>1195.73</v>
+      <c r="C157" s="4">
+        <v>602.49</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1342.21</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C158" s="5">
-        <v>559.49</v>
-      </c>
-      <c r="D158" s="5">
-        <v>1242.3499999999999</v>
+      <c r="C158" s="4">
+        <v>572.92999999999995</v>
+      </c>
+      <c r="D158" s="4">
+        <v>1287.71</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C159" s="5">
-        <v>579.54999999999995</v>
-      </c>
-      <c r="D159" s="5">
-        <v>1289.25</v>
+      <c r="C159" s="4">
+        <v>588.55999999999995</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1318.74</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C160" s="5">
-        <v>602.49</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1342.21</v>
+      <c r="C160" s="4">
+        <v>591.35</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1342.55</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C161" s="5">
-        <v>572.92999999999995</v>
-      </c>
-      <c r="D161" s="5">
-        <v>1287.71</v>
+      <c r="C161" s="4">
+        <v>567.04</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1279.4000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C162" s="5">
-        <v>588.55999999999995</v>
-      </c>
-      <c r="D162" s="5">
-        <v>1318.74</v>
+      <c r="C162" s="4">
+        <v>587.72</v>
+      </c>
+      <c r="D162" s="4">
+        <v>1316.02</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C163" s="5">
-        <v>591.35</v>
-      </c>
-      <c r="D163" s="5">
-        <v>1342.55</v>
+      <c r="C163" s="4">
+        <v>509.01</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1126.95</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C164" s="5">
-        <v>567.04</v>
-      </c>
-      <c r="D164" s="5">
-        <v>1279.4000000000001</v>
+      <c r="C164" s="4">
+        <v>546.42999999999995</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1216.74</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C165" s="5">
-        <v>587.72</v>
-      </c>
-      <c r="D165" s="5">
-        <v>1316.02</v>
+      <c r="C165" s="4">
+        <v>558.47</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1228.1600000000001</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="5">
-        <v>509.01</v>
-      </c>
-      <c r="D166" s="5">
-        <v>1126.95</v>
+      <c r="C166" s="4">
+        <v>547.79999999999995</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1221.58</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="5">
-        <v>546.42999999999995</v>
-      </c>
-      <c r="D167" s="5">
-        <v>1216.74</v>
+      <c r="C167" s="4">
+        <v>553.61</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1225.05</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C168" s="5">
-        <v>558.47</v>
-      </c>
-      <c r="D168" s="5">
-        <v>1228.1600000000001</v>
+      <c r="C168" s="4">
+        <v>595.95000000000005</v>
+      </c>
+      <c r="D168" s="4">
+        <v>1313.93</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C169" s="5">
-        <v>547.79999999999995</v>
-      </c>
-      <c r="D169" s="5">
-        <v>1221.58</v>
+      <c r="C169" s="4">
+        <v>615.05999999999995</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1363.8</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C170" s="5">
-        <v>553.61</v>
-      </c>
-      <c r="D170" s="5">
-        <v>1225.05</v>
+      <c r="C170" s="4">
+        <v>637.85</v>
+      </c>
+      <c r="D170" s="4">
+        <v>1405.11</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C171" s="5">
-        <v>595.95000000000005</v>
-      </c>
-      <c r="D171" s="5">
-        <v>1313.93</v>
+      <c r="C171" s="4">
+        <v>626.1</v>
+      </c>
+      <c r="D171" s="4">
+        <v>1383.4</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C172" s="5">
-        <v>615.05999999999995</v>
-      </c>
-      <c r="D172" s="5">
-        <v>1363.8</v>
+      <c r="C172" s="4">
+        <v>591.61</v>
+      </c>
+      <c r="D172" s="4">
+        <v>1310.33</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C173" s="5">
-        <v>637.85</v>
-      </c>
-      <c r="D173" s="5">
-        <v>1405.11</v>
+      <c r="C173" s="4">
+        <v>614.84</v>
+      </c>
+      <c r="D173" s="4">
+        <v>1336.47</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C174" s="5">
-        <v>626.1</v>
-      </c>
-      <c r="D174" s="5">
-        <v>1383.4</v>
+      <c r="C174" s="4">
+        <v>626.57000000000005</v>
+      </c>
+      <c r="D174" s="4">
+        <v>1370.28</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C175" s="5">
-        <v>591.61</v>
-      </c>
-      <c r="D175" s="5">
-        <v>1310.33</v>
+      <c r="C175" s="4">
+        <v>651.58000000000004</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1419.02</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C176" s="5">
-        <v>614.84</v>
-      </c>
-      <c r="D176" s="5">
-        <v>1336.47</v>
+      <c r="C176" s="4">
+        <v>672.27</v>
+      </c>
+      <c r="D176" s="4">
+        <v>1467.17</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C177" s="5">
-        <v>626.57000000000005</v>
-      </c>
-      <c r="D177" s="5">
-        <v>1370.28</v>
+      <c r="C177" s="4">
+        <v>657.11</v>
+      </c>
+      <c r="D177" s="4">
+        <v>1454.2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C178" s="5">
-        <v>651.58000000000004</v>
-      </c>
-      <c r="D178" s="5">
-        <v>1419.02</v>
+      <c r="C178" s="4">
+        <v>619.03</v>
+      </c>
+      <c r="D178" s="4">
+        <v>1353.46</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C179" s="5">
-        <v>672.27</v>
-      </c>
-      <c r="D179" s="5">
-        <v>1467.17</v>
+      <c r="C179" s="4">
+        <v>648.96</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1433.59</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C180" s="5">
-        <v>657.11</v>
-      </c>
-      <c r="D180" s="5">
-        <v>1454.2</v>
+      <c r="C180" s="4">
+        <v>671.37</v>
+      </c>
+      <c r="D180" s="4">
+        <v>1481.36</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C181" s="5">
-        <v>619.03</v>
-      </c>
-      <c r="D181" s="5">
-        <v>1353.46</v>
+      <c r="C181" s="4">
+        <v>683.97</v>
+      </c>
+      <c r="D181" s="4">
+        <v>1523.06</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C182" s="5">
-        <v>648.96</v>
-      </c>
-      <c r="D182" s="5">
-        <v>1433.59</v>
+      <c r="C182" s="4">
+        <v>701.75</v>
+      </c>
+      <c r="D182" s="4">
+        <v>1557.08</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C183" s="5">
-        <v>671.37</v>
-      </c>
-      <c r="D183" s="5">
-        <v>1481.36</v>
+      <c r="C183" s="4">
+        <v>700.82</v>
+      </c>
+      <c r="D183" s="4">
+        <v>1545.35</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C184" s="5">
-        <v>683.97</v>
-      </c>
-      <c r="D184" s="5">
-        <v>1523.06</v>
+      <c r="C184" s="4">
+        <v>747.72</v>
+      </c>
+      <c r="D184" s="4">
+        <v>1654.89</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C185" s="5">
-        <v>701.75</v>
-      </c>
-      <c r="D185" s="5">
-        <v>1557.08</v>
+      <c r="C185" s="4">
+        <v>717.58</v>
+      </c>
+      <c r="D185" s="4">
+        <v>1599.93</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C186" s="5">
-        <v>700.82</v>
-      </c>
-      <c r="D186" s="5">
-        <v>1545.35</v>
+      <c r="C186" s="4">
+        <v>757.51</v>
+      </c>
+      <c r="D186" s="4">
+        <v>1688.8</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C187" s="5">
-        <v>747.72</v>
-      </c>
-      <c r="D187" s="5">
-        <v>1654.89</v>
+      <c r="C187" s="4">
+        <v>742.38</v>
+      </c>
+      <c r="D187" s="4">
+        <v>1657</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C188" s="5">
-        <v>717.58</v>
-      </c>
-      <c r="D188" s="5">
-        <v>1599.93</v>
+      <c r="C188" s="4">
+        <v>763.23</v>
+      </c>
+      <c r="D188" s="4">
+        <v>1723.89</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C189" s="5">
-        <v>757.51</v>
-      </c>
-      <c r="D189" s="5">
-        <v>1688.8</v>
+      <c r="C189" s="4">
+        <v>776.21</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1739.84</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C190" s="5">
-        <v>742.38</v>
-      </c>
-      <c r="D190" s="5">
-        <v>1657</v>
+      <c r="C190" s="4">
+        <v>802.1</v>
+      </c>
+      <c r="D190" s="4">
+        <v>1790.9</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C191" s="5">
-        <v>763.23</v>
-      </c>
-      <c r="D191" s="5">
-        <v>1723.89</v>
+      <c r="C191" s="4">
+        <v>809.74</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1812.89</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C192" s="5">
-        <v>776.21</v>
-      </c>
-      <c r="D192" s="5">
-        <v>1739.84</v>
+      <c r="C192" s="4">
+        <v>817.33</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1846.06</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C193" s="5">
-        <v>802.1</v>
-      </c>
-      <c r="D193" s="5">
-        <v>1790.9</v>
+      <c r="C193" s="4">
+        <v>807.33</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1841.85</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C194" s="5">
-        <v>809.74</v>
-      </c>
-      <c r="D194" s="5">
-        <v>1812.89</v>
+      <c r="C194" s="4">
+        <v>823.69</v>
+      </c>
+      <c r="D194" s="4">
+        <v>1893.3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C195" s="5">
-        <v>817.33</v>
-      </c>
-      <c r="D195" s="5">
-        <v>1846.06</v>
+      <c r="C195" s="4">
+        <v>825.68</v>
+      </c>
+      <c r="D195" s="4">
+        <v>1858.82</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C196" s="5">
-        <v>807.33</v>
-      </c>
-      <c r="D196" s="5">
-        <v>1841.85</v>
+      <c r="C196" s="4">
+        <v>832.32</v>
+      </c>
+      <c r="D196" s="4">
+        <v>1870.76</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C197" s="5">
-        <v>823.69</v>
-      </c>
-      <c r="D197" s="5">
-        <v>1893.3</v>
+      <c r="C197" s="4">
+        <v>866.15</v>
+      </c>
+      <c r="D197" s="4">
+        <v>1964.52</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C198" s="5">
-        <v>825.68</v>
-      </c>
-      <c r="D198" s="5">
-        <v>1858.82</v>
+      <c r="C198" s="4">
+        <v>879.49</v>
+      </c>
+      <c r="D198" s="4">
+        <v>1966.31</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C199" s="5">
-        <v>832.32</v>
-      </c>
-      <c r="D199" s="5">
-        <v>1870.76</v>
+      <c r="C199" s="4">
+        <v>868.27</v>
+      </c>
+      <c r="D199" s="4">
+        <v>1963.31</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C200" s="5">
-        <v>866.15</v>
-      </c>
-      <c r="D200" s="5">
-        <v>1964.52</v>
+      <c r="C200" s="4">
+        <v>897.09</v>
+      </c>
+      <c r="D200" s="4">
+        <v>2022.46</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C201" s="5">
-        <v>879.49</v>
-      </c>
-      <c r="D201" s="5">
-        <v>1966.31</v>
+      <c r="C201" s="4">
+        <v>840.94</v>
+      </c>
+      <c r="D201" s="4">
+        <v>1881.8</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C202" s="5">
-        <v>868.27</v>
-      </c>
-      <c r="D202" s="5">
-        <v>1963.31</v>
+      <c r="C202" s="4">
+        <v>914.78</v>
+      </c>
+      <c r="D202" s="4">
+        <v>2075.42</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C203" s="5">
-        <v>897.09</v>
-      </c>
-      <c r="D203" s="5">
-        <v>2022.46</v>
+      <c r="C203" s="4">
+        <v>915.23</v>
+      </c>
+      <c r="D203" s="4">
+        <v>2061.0100000000002</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C204" s="5">
-        <v>840.94</v>
-      </c>
-      <c r="D204" s="5">
-        <v>1881.8</v>
+      <c r="C204" s="4">
+        <v>889.8</v>
+      </c>
+      <c r="D204" s="4">
+        <v>1989.68</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C205" s="5">
-        <v>914.78</v>
-      </c>
-      <c r="D205" s="5">
-        <v>2075.42</v>
+      <c r="C205" s="4">
+        <v>926.63</v>
+      </c>
+      <c r="D205" s="4">
+        <v>2094.87</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C206" s="5">
-        <v>915.23</v>
-      </c>
-      <c r="D206" s="5">
-        <v>2061.0100000000002</v>
+      <c r="C206" s="4">
+        <v>922.49</v>
+      </c>
+      <c r="D206" s="4">
+        <v>2099.02</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C207" s="5">
-        <v>889.8</v>
-      </c>
-      <c r="D207" s="5">
-        <v>1989.68</v>
+      <c r="C207" s="4">
+        <v>909.87</v>
+      </c>
+      <c r="D207" s="4">
+        <v>2090.41</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C208" s="5">
-        <v>926.63</v>
-      </c>
-      <c r="D208" s="5">
-        <v>2094.87</v>
+      <c r="C208" s="4">
+        <v>933.12</v>
+      </c>
+      <c r="D208" s="4">
+        <v>2123.4499999999998</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C209" s="5">
-        <v>922.49</v>
-      </c>
-      <c r="D209" s="5">
-        <v>2099.02</v>
+      <c r="C209" s="4">
+        <v>927.63</v>
+      </c>
+      <c r="D209" s="4">
+        <v>2117.11</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C210" s="5">
-        <v>909.87</v>
-      </c>
-      <c r="D210" s="5">
-        <v>2090.41</v>
+      <c r="C210" s="4">
+        <v>943.27</v>
+      </c>
+      <c r="D210" s="4">
+        <v>2124.88</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C211" s="5">
-        <v>933.12</v>
-      </c>
-      <c r="D211" s="5">
-        <v>2123.4499999999998</v>
+      <c r="C211" s="4">
+        <v>864.77</v>
+      </c>
+      <c r="D211" s="4">
+        <v>2015.47</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C212" s="5">
-        <v>927.63</v>
-      </c>
-      <c r="D212" s="5">
-        <v>2117.11</v>
+      <c r="C212" s="4">
+        <v>861.37</v>
+      </c>
+      <c r="D212" s="4">
+        <v>1970.1</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C213" s="5">
-        <v>943.27</v>
-      </c>
-      <c r="D213" s="5">
-        <v>2124.88</v>
+      <c r="C213" s="4">
+        <v>901.24</v>
+      </c>
+      <c r="D213" s="4">
+        <v>2034.33</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C214" s="5">
-        <v>864.77</v>
-      </c>
-      <c r="D214" s="5">
-        <v>2015.47</v>
+      <c r="C214" s="4">
+        <v>932.99</v>
+      </c>
+      <c r="D214" s="4">
+        <v>2092.59</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C215" s="5">
-        <v>861.37</v>
-      </c>
-      <c r="D215" s="5">
-        <v>1970.1</v>
+      <c r="C215" s="4">
+        <v>896.05</v>
+      </c>
+      <c r="D215" s="4">
+        <v>2029.72</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C216" s="5">
-        <v>901.24</v>
-      </c>
-      <c r="D216" s="5">
-        <v>2034.33</v>
+      <c r="C216" s="4">
+        <v>839.89</v>
+      </c>
+      <c r="D216" s="4">
+        <v>1866.72</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C217" s="5">
-        <v>932.99</v>
-      </c>
-      <c r="D217" s="5">
-        <v>2092.59</v>
+      <c r="C217" s="4">
+        <v>857.25</v>
+      </c>
+      <c r="D217" s="4">
+        <v>1911.37</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C218" s="5">
-        <v>896.05</v>
-      </c>
-      <c r="D218" s="5">
-        <v>2029.72</v>
+      <c r="C218" s="4">
+        <v>907.88</v>
+      </c>
+      <c r="D218" s="4">
+        <v>2050.0700000000002</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C219" s="5">
-        <v>839.89</v>
-      </c>
-      <c r="D219" s="5">
-        <v>1866.72</v>
+      <c r="C219" s="4">
+        <v>923.97</v>
+      </c>
+      <c r="D219" s="4">
+        <v>2083.83</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C220" s="5">
-        <v>857.25</v>
-      </c>
-      <c r="D220" s="5">
-        <v>1911.37</v>
+      <c r="C220" s="4">
+        <v>909.15</v>
+      </c>
+      <c r="D220" s="4">
+        <v>2047.87</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C221" s="5">
-        <v>907.88</v>
-      </c>
-      <c r="D221" s="5">
-        <v>2050.0700000000002</v>
+      <c r="C221" s="4">
+        <v>914.95</v>
+      </c>
+      <c r="D221" s="4">
+        <v>2079.12</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C222" s="5">
-        <v>923.97</v>
-      </c>
-      <c r="D222" s="5">
-        <v>2083.83</v>
+      <c r="C222" s="4">
+        <v>955.92</v>
+      </c>
+      <c r="D222" s="4">
+        <v>2172.54</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C223" s="5">
-        <v>909.15</v>
-      </c>
-      <c r="D223" s="5">
-        <v>2047.87</v>
+      <c r="C223" s="4">
+        <v>964.8</v>
+      </c>
+      <c r="D223" s="4">
+        <v>2180.04</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C224" s="5">
-        <v>914.95</v>
-      </c>
-      <c r="D224" s="5">
-        <v>2079.12</v>
+      <c r="C224" s="4">
+        <v>948.8</v>
+      </c>
+      <c r="D224" s="4">
+        <v>2139.96</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C225" s="5">
-        <v>955.92</v>
-      </c>
-      <c r="D225" s="5">
-        <v>2172.54</v>
+      <c r="C225" s="4">
+        <v>949.66</v>
+      </c>
+      <c r="D225" s="4">
+        <v>2132.9699999999998</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C226" s="5">
-        <v>964.8</v>
-      </c>
-      <c r="D226" s="5">
-        <v>2180.04</v>
+      <c r="C226" s="4">
+        <v>963.13</v>
+      </c>
+      <c r="D226" s="4">
+        <v>2186.11</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C227" s="5">
-        <v>948.8</v>
-      </c>
-      <c r="D227" s="5">
-        <v>2139.96</v>
+      <c r="C227" s="4">
+        <v>999.89</v>
+      </c>
+      <c r="D227" s="4">
+        <v>2268.63</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C228" s="5">
-        <v>949.66</v>
-      </c>
-      <c r="D228" s="5">
-        <v>2132.9699999999998</v>
+      <c r="C228" s="4">
+        <v>1003.04</v>
+      </c>
+      <c r="D228" s="4">
+        <v>2273.6</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C229" s="5">
-        <v>963.13</v>
-      </c>
-      <c r="D229" s="5">
-        <v>2186.11</v>
+      <c r="C229" s="4">
+        <v>1039.23</v>
+      </c>
+      <c r="D229" s="4">
+        <v>2341.31</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C230" s="5">
-        <v>999.89</v>
-      </c>
-      <c r="D230" s="5">
-        <v>2268.63</v>
+      <c r="C230" s="4">
+        <v>1055.3399999999999</v>
+      </c>
+      <c r="D230" s="4">
+        <v>2385.8000000000002</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C231" s="5">
-        <v>1003.04</v>
-      </c>
-      <c r="D231" s="5">
-        <v>2273.6</v>
+      <c r="C231" s="4">
+        <v>1037.07</v>
+      </c>
+      <c r="D231" s="4">
+        <v>2354.1799999999998</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C232" s="5">
-        <v>1039.23</v>
-      </c>
-      <c r="D232" s="5">
-        <v>2341.31</v>
+      <c r="C232" s="4">
+        <v>1050.79</v>
+      </c>
+      <c r="D232" s="4">
+        <v>2372.5</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C233" s="5">
-        <v>1055.3399999999999</v>
-      </c>
-      <c r="D233" s="5">
-        <v>2385.8000000000002</v>
+      <c r="C233" s="4">
+        <v>1071.8499999999999</v>
+      </c>
+      <c r="D233" s="4">
+        <v>2434.89</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C234" s="5">
-        <v>1037.07</v>
-      </c>
-      <c r="D234" s="5">
-        <v>2354.1799999999998</v>
+      <c r="C234" s="4">
+        <v>1087.74</v>
+      </c>
+      <c r="D234" s="4">
+        <v>2465.65</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C235" s="5">
-        <v>1050.79</v>
-      </c>
-      <c r="D235" s="5">
-        <v>2372.5</v>
+      <c r="C235" s="4">
+        <v>1073.52</v>
+      </c>
+      <c r="D235" s="4">
+        <v>2425.9</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C236" s="5">
-        <v>1071.8499999999999</v>
-      </c>
-      <c r="D236" s="5">
-        <v>2434.89</v>
+      <c r="C236" s="4">
+        <v>1105.1099999999999</v>
+      </c>
+      <c r="D236" s="4">
+        <v>2496.83</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C237" s="5">
-        <v>1087.74</v>
-      </c>
-      <c r="D237" s="5">
-        <v>2465.65</v>
+      <c r="C237" s="4">
+        <v>1135.26</v>
+      </c>
+      <c r="D237" s="4">
+        <v>2571.7600000000002</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C238" s="5">
-        <v>1073.52</v>
-      </c>
-      <c r="D238" s="5">
-        <v>2425.9</v>
+      <c r="C238" s="4">
+        <v>1135.3499999999999</v>
+      </c>
+      <c r="D238" s="4">
+        <v>2580.25</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C239" s="5">
-        <v>1105.1099999999999</v>
-      </c>
-      <c r="D239" s="5">
-        <v>2496.83</v>
+      <c r="C239" s="4">
+        <v>1186.68</v>
+      </c>
+      <c r="D239" s="4">
+        <v>2669.02</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C240" s="5">
-        <v>1135.26</v>
-      </c>
-      <c r="D240" s="5">
-        <v>2571.7600000000002</v>
+      <c r="C240" s="4">
+        <v>1245.7</v>
+      </c>
+      <c r="D240" s="4">
+        <v>2806.67</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C241" s="5">
-        <v>1135.3499999999999</v>
-      </c>
-      <c r="D241" s="5">
-        <v>2580.25</v>
+      <c r="C241" s="4">
+        <v>1208.8800000000001</v>
+      </c>
+      <c r="D241" s="4">
+        <v>2725.08</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C242" s="5">
-        <v>1186.68</v>
-      </c>
-      <c r="D242" s="5">
-        <v>2669.02</v>
+      <c r="C242" s="4">
+        <v>1211.4000000000001</v>
+      </c>
+      <c r="D242" s="4">
+        <v>2751.83</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C243" s="5">
-        <v>1245.7</v>
-      </c>
-      <c r="D243" s="5">
-        <v>2806.67</v>
+      <c r="C243" s="4">
+        <v>1170.45</v>
+      </c>
+      <c r="D243" s="4">
+        <v>2693.4</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C244" s="5">
-        <v>1208.8800000000001</v>
-      </c>
-      <c r="D244" s="5">
-        <v>2725.08</v>
+      <c r="C244" s="4">
+        <v>1190.6500000000001</v>
+      </c>
+      <c r="D244" s="4">
+        <v>2716.88</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C245" s="5">
-        <v>1211.4000000000001</v>
-      </c>
-      <c r="D245" s="5">
-        <v>2751.83</v>
+      <c r="C245" s="4">
+        <v>1220.26</v>
+      </c>
+      <c r="D245" s="4">
+        <v>2776.85</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C246" s="5">
-        <v>1170.45</v>
-      </c>
-      <c r="D246" s="5">
-        <v>2693.4</v>
+      <c r="C246" s="4">
+        <v>1236.33</v>
+      </c>
+      <c r="D246" s="4">
+        <v>2802.41</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C247" s="5">
-        <v>1190.6500000000001</v>
-      </c>
-      <c r="D247" s="5">
-        <v>2716.88</v>
+      <c r="C247" s="4">
+        <v>1262.32</v>
+      </c>
+      <c r="D247" s="4">
+        <v>2838.69</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C248" s="5">
-        <v>1220.26</v>
-      </c>
-      <c r="D248" s="5">
-        <v>2776.85</v>
+      <c r="C248" s="4">
+        <v>1298.1400000000001</v>
+      </c>
+      <c r="D248" s="4">
+        <v>2940.45</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C249" s="5">
-        <v>1236.33</v>
-      </c>
-      <c r="D249" s="5">
-        <v>2802.41</v>
+      <c r="C249" s="4">
+        <v>1236.0899999999999</v>
+      </c>
+      <c r="D249" s="4">
+        <v>2775</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C250" s="5">
-        <v>1262.32</v>
-      </c>
-      <c r="D250" s="5">
-        <v>2838.69</v>
+      <c r="C250" s="4">
+        <v>1213.73</v>
+      </c>
+      <c r="D250" s="4">
+        <v>2715.99</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C251" s="5">
-        <v>1298.1400000000001</v>
-      </c>
-      <c r="D251" s="5">
-        <v>2940.45</v>
+      <c r="C251" s="4">
+        <v>1071.32</v>
+      </c>
+      <c r="D251" s="4">
+        <v>2458.9</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C252" s="5">
-        <v>1236.0899999999999</v>
-      </c>
-      <c r="D252" s="5">
-        <v>2775</v>
+      <c r="C252" s="4">
+        <v>1181.55</v>
+      </c>
+      <c r="D252" s="4">
+        <v>2657.47</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C253" s="5">
-        <v>1213.73</v>
-      </c>
-      <c r="D253" s="5">
-        <v>2715.99</v>
+      <c r="C253" s="4">
+        <v>1217.96</v>
+      </c>
+      <c r="D253" s="4">
+        <v>2768.87</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C254" s="5">
-        <v>1071.32</v>
-      </c>
-      <c r="D254" s="5">
-        <v>2458.9</v>
+      <c r="C254" s="4">
+        <v>1247.48</v>
+      </c>
+      <c r="D254" s="4">
+        <v>2811.89</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C255" s="5">
-        <v>1181.55</v>
-      </c>
-      <c r="D255" s="5">
-        <v>2657.47</v>
+      <c r="C255" s="4">
+        <v>1287.4000000000001</v>
+      </c>
+      <c r="D255" s="4">
+        <v>2905.9</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C256" s="5">
-        <v>1217.96</v>
-      </c>
-      <c r="D256" s="5">
-        <v>2768.87</v>
+      <c r="C256" s="4">
+        <v>1267.4100000000001</v>
+      </c>
+      <c r="D256" s="4">
+        <v>2851.23</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C257" s="5">
-        <v>1247.48</v>
-      </c>
-      <c r="D257" s="5">
-        <v>2811.89</v>
+      <c r="C257" s="4">
+        <v>1304.3599999999999</v>
+      </c>
+      <c r="D257" s="4">
+        <v>2953.9</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C258" s="5">
-        <v>1287.4000000000001</v>
-      </c>
-      <c r="D258" s="5">
-        <v>2905.9</v>
+      <c r="C258" s="4">
+        <v>1315.42</v>
+      </c>
+      <c r="D258" s="4">
+        <v>3008.06</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C259" s="5">
-        <v>1267.4100000000001</v>
-      </c>
-      <c r="D259" s="5">
-        <v>2851.23</v>
+      <c r="C259" s="4">
+        <v>1275.19</v>
+      </c>
+      <c r="D259" s="4">
+        <v>2870.98</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C260" s="5">
-        <v>1304.3599999999999</v>
-      </c>
-      <c r="D260" s="5">
-        <v>2953.9</v>
+        <v>5</v>
+      </c>
+      <c r="C260" s="4">
+        <v>1321.7</v>
+      </c>
+      <c r="D260" s="4">
+        <v>3013.61</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C261" s="5">
-        <v>1315.42</v>
-      </c>
-      <c r="D261" s="5">
-        <v>3008.06</v>
+        <v>4</v>
+      </c>
+      <c r="C261" s="4">
+        <v>1321.61</v>
+      </c>
+      <c r="D261" s="4">
+        <v>2996.65</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C262" s="5">
-        <v>1275.19</v>
-      </c>
-      <c r="D262" s="5">
-        <v>2870.98</v>
+        <v>2</v>
+      </c>
+      <c r="C262" s="4">
+        <v>1388.81</v>
+      </c>
+      <c r="D262" s="4">
+        <v>3110.52</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C263" s="5">
-        <v>1321.7</v>
-      </c>
-      <c r="D263" s="5">
-        <v>3013.61</v>
+        <v>3</v>
+      </c>
+      <c r="C263" s="4">
+        <v>1435.65</v>
+      </c>
+      <c r="D263" s="4">
+        <v>3231.02</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C264" s="5">
-        <v>1321.61</v>
-      </c>
-      <c r="D264" s="5">
-        <v>2996.65</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>43770</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C265" s="5">
-        <v>1388.81</v>
-      </c>
-      <c r="D265" s="5">
-        <v>3110.52</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266" s="5">
-        <v>1435.65</v>
-      </c>
-      <c r="D266" s="5">
-        <v>3231.02</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B267" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C267" s="5">
+      <c r="C264" s="4">
         <v>1489.62</v>
       </c>
-      <c r="D267" s="5">
+      <c r="D264" s="4">
         <v>3326.19</v>
       </c>
     </row>
